--- a/data_xlsx/2023_full.xlsx
+++ b/data_xlsx/2023_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F91E72-CB4B-4BDD-99B6-9318ECFA31BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62B2EE-81AA-40DC-BBD6-4445DF39C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2805" windowWidth="21600" windowHeight="13305" tabRatio="822" firstSheet="18" activeTab="18" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="18" activeTab="18" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7. Сменяемость ГС'!$A$1:$Q$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$J$20</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2390,52 +2390,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2444,6 +2411,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10376,7 +10376,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10452,7 +10452,7 @@
       <c r="D4" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="256"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="200" t="s">
         <v>210</v>
       </c>
@@ -10476,21 +10476,21 @@
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="228"/>
       <c r="C5" s="249"/>
-      <c r="D5" s="250" t="s">
+      <c r="D5" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="262"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="231" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="262"/>
-      <c r="J5" s="254"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="260"/>
       <c r="K5" s="231" t="s">
         <v>15</v>
       </c>
@@ -10503,42 +10503,42 @@
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
       <c r="C6" s="249"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="262"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="251"/>
       <c r="G6" s="249"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="257"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="263"/>
       <c r="L6" s="231" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="258" t="s">
+      <c r="M6" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="267" t="s">
+      <c r="O6" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="264" t="s">
+      <c r="P6" s="250" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="228"/>
       <c r="C7" s="232"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="263"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="252"/>
       <c r="G7" s="232"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="261"/>
       <c r="K7" s="232"/>
       <c r="L7" s="232"/>
-      <c r="M7" s="261"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="264"/>
+      <c r="M7" s="267"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="250"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
@@ -11310,13 +11310,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B2:M2"/>
@@ -11330,6 +11323,13 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13880,7 +13880,7 @@
         <v>182</v>
       </c>
       <c r="L5" s="228"/>
-      <c r="N5" s="264" t="s">
+      <c r="N5" s="250" t="s">
         <v>170</v>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="264"/>
+      <c r="N6" s="250"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -14652,7 +14652,7 @@
       <c r="P4" s="206"/>
       <c r="Q4" s="206"/>
       <c r="R4" s="207"/>
-      <c r="T4" s="264" t="s">
+      <c r="T4" s="250" t="s">
         <v>174</v>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
       <c r="P5" s="209"/>
       <c r="Q5" s="209"/>
       <c r="R5" s="210"/>
-      <c r="T5" s="264"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
@@ -14730,7 +14730,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="264"/>
+      <c r="T6" s="250"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -17750,10 +17750,10 @@
       <c r="I5" s="241"/>
       <c r="J5" s="241"/>
       <c r="K5" s="242"/>
-      <c r="L5" s="267" t="s">
+      <c r="L5" s="256" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="267"/>
+      <c r="M5" s="256"/>
       <c r="N5" s="240" t="s">
         <v>131</v>
       </c>
@@ -17763,10 +17763,10 @@
       <c r="R5" s="241"/>
       <c r="S5" s="241"/>
       <c r="T5" s="242"/>
-      <c r="U5" s="267" t="s">
+      <c r="U5" s="256" t="s">
         <v>179</v>
       </c>
-      <c r="V5" s="267"/>
+      <c r="V5" s="256"/>
     </row>
     <row r="6" spans="2:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>

--- a/data_xlsx/2023_full.xlsx
+++ b/data_xlsx/2023_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62B2EE-81AA-40DC-BBD6-4445DF39C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F3E89-2964-4592-9DDE-0EDF895A1A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="18" activeTab="18" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
+    <workbookView xWindow="5985" yWindow="1725" windowWidth="21600" windowHeight="13620" tabRatio="822" firstSheet="18" activeTab="24" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="241">
   <si>
     <t>Республика Башкортостан</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>Средств служащих</t>
-  </si>
-  <si>
-    <t>в т.ч. за счет средств федерального бюджета</t>
   </si>
   <si>
     <t>в т.ч. за счет средств служащих</t>
@@ -2390,19 +2387,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2411,39 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2854,7 +2851,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -6009,7 +6006,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="221" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="222" t="s">
         <v>36</v>
@@ -6025,16 +6022,16 @@
       <c r="K3" s="198"/>
       <c r="L3" s="199"/>
       <c r="M3" s="200" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="221" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="221" t="s">
         <v>200</v>
       </c>
-      <c r="N3" s="221" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" s="221" t="s">
+      <c r="P3" s="221" t="s">
         <v>201</v>
-      </c>
-      <c r="P3" s="221" t="s">
-        <v>202</v>
       </c>
       <c r="Q3" s="224" t="s">
         <v>147</v>
@@ -6051,13 +6048,13 @@
         <v>27</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J4" s="156" t="s">
         <v>27</v>
@@ -7051,7 +7048,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="93.75" x14ac:dyDescent="0.2">
@@ -7069,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7103,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7153,7 +7150,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7187,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="20.25" x14ac:dyDescent="0.2">
@@ -7221,7 +7218,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7239,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="188" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
@@ -7257,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7368,14 +7365,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="234"/>
       <c r="F4" s="234" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="234"/>
       <c r="H4" s="234" t="s">
@@ -7383,7 +7380,7 @@
       </c>
       <c r="I4" s="234"/>
       <c r="J4" s="231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8137,37 +8134,37 @@
         <v>64</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6" s="104" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" s="104" t="s">
         <v>64</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M6" s="104" t="s">
         <v>163</v>
       </c>
       <c r="N6" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>154</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="104" t="s">
         <v>64</v>
       </c>
       <c r="R6" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9133,7 +9130,7 @@
     <row r="22" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="235"/>
       <c r="D23" s="235"/>
@@ -9337,7 +9334,7 @@
       </c>
       <c r="L6" s="248"/>
       <c r="M6" s="197" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N6" s="247"/>
       <c r="O6" s="197" t="s">
@@ -10321,7 +10318,7 @@
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="239"/>
       <c r="D24" s="239"/>
@@ -10375,7 +10372,7 @@
   </sheetPr>
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -10447,24 +10444,24 @@
         <v>14</v>
       </c>
       <c r="C4" s="231" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="262"/>
+      <c r="E4" s="256"/>
       <c r="F4" s="200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="236" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="238"/>
       <c r="I4" s="200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K4" s="228" t="s">
         <v>98</v>
@@ -10476,21 +10473,21 @@
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="228"/>
       <c r="C5" s="249"/>
-      <c r="D5" s="257" t="s">
+      <c r="D5" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="264" t="s">
+      <c r="E5" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="251"/>
+      <c r="F5" s="262"/>
       <c r="G5" s="231" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="251"/>
-      <c r="J5" s="260"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="254"/>
       <c r="K5" s="231" t="s">
         <v>15</v>
       </c>
@@ -10503,42 +10500,42 @@
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
       <c r="C6" s="249"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="262"/>
       <c r="G6" s="249"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="263"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="257"/>
       <c r="L6" s="231" t="s">
-        <v>225</v>
-      </c>
-      <c r="M6" s="264" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="256" t="s">
+      <c r="O6" s="267" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="250" t="s">
+      <c r="P6" s="264" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="228"/>
       <c r="C7" s="232"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="263"/>
       <c r="G7" s="232"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="261"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="255"/>
       <c r="K7" s="232"/>
       <c r="L7" s="232"/>
-      <c r="M7" s="267"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="250"/>
+      <c r="M7" s="261"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="264"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
@@ -11299,17 +11296,24 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J24" s="90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B2:M2"/>
@@ -11323,13 +11327,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11437,7 +11434,7 @@
       <c r="I5" s="203"/>
       <c r="J5" s="204"/>
       <c r="K5" s="200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L5" s="202" t="s">
         <v>57</v>
@@ -11445,7 +11442,7 @@
       <c r="M5" s="203"/>
       <c r="N5" s="204"/>
       <c r="O5" s="200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P5" s="202" t="s">
         <v>57</v>
@@ -11460,7 +11457,7 @@
         <v>140</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>141</v>
@@ -11470,7 +11467,7 @@
         <v>140</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>142</v>
@@ -11490,10 +11487,10 @@
         <v>136</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11556,7 +11553,7 @@
         <v>1.7379145025968837E-2</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11619,7 +11616,7 @@
         <v>0.1228813559322034</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11682,7 +11679,7 @@
         <v>0.12112259970457903</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11745,7 +11742,7 @@
         <v>0.15659990537770069</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11808,7 +11805,7 @@
         <v>0.18656015037593984</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11871,7 +11868,7 @@
         <v>1.696165191740413E-2</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11934,7 +11931,7 @@
         <v>9.1727630838491836E-2</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11997,7 +11994,7 @@
         <v>1.8672199170124481E-2</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12060,7 +12057,7 @@
         <v>9.4277673545966223E-2</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12123,7 +12120,7 @@
         <v>0.14145543744889616</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12186,7 +12183,7 @@
         <v>4.0501996577296064E-2</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12249,7 +12246,7 @@
         <v>4.0171143332541001E-2</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12312,7 +12309,7 @@
         <v>0.10884588804422944</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12375,7 +12372,7 @@
         <v>0.15516224188790562</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12576,7 +12573,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="270" t="s">
         <v>68</v>
@@ -13737,7 +13734,7 @@
     </row>
     <row r="23" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="268" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="268"/>
       <c r="D23" s="268"/>
@@ -13865,22 +13862,22 @@
       <c r="C5" s="234"/>
       <c r="D5" s="234"/>
       <c r="E5" s="234" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="234"/>
       <c r="G5" s="240" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="242"/>
       <c r="I5" s="234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J5" s="234"/>
       <c r="K5" s="228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L5" s="228"/>
-      <c r="N5" s="250" t="s">
+      <c r="N5" s="264" t="s">
         <v>170</v>
       </c>
     </row>
@@ -13916,7 +13913,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="250"/>
+      <c r="N6" s="264"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -14652,7 +14649,7 @@
       <c r="P4" s="206"/>
       <c r="Q4" s="206"/>
       <c r="R4" s="207"/>
-      <c r="T4" s="250" t="s">
+      <c r="T4" s="264" t="s">
         <v>174</v>
       </c>
     </row>
@@ -14678,7 +14675,7 @@
       <c r="P5" s="209"/>
       <c r="Q5" s="209"/>
       <c r="R5" s="210"/>
-      <c r="T5" s="250"/>
+      <c r="T5" s="264"/>
     </row>
     <row r="6" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
@@ -14730,7 +14727,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="250"/>
+      <c r="T6" s="264"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -15823,7 +15820,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="243" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="244"/>
       <c r="E4" s="281" t="s">
@@ -15845,10 +15842,10 @@
         <v>71</v>
       </c>
       <c r="G5" s="279" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="231" t="s">
         <v>195</v>
-      </c>
-      <c r="H5" s="231" t="s">
-        <v>196</v>
       </c>
       <c r="I5" s="231" t="s">
         <v>115</v>
@@ -15860,7 +15857,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="232"/>
       <c r="F6" s="232"/>
@@ -16574,7 +16571,7 @@
     <row r="6" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="219"/>
       <c r="C6" s="240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="242"/>
       <c r="E6" s="240" t="s">
@@ -16582,7 +16579,7 @@
       </c>
       <c r="F6" s="242"/>
       <c r="G6" s="240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="242"/>
       <c r="I6" s="240" t="s">
@@ -16590,7 +16587,7 @@
       </c>
       <c r="J6" s="242"/>
       <c r="K6" s="240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="242"/>
       <c r="M6" s="240" t="s">
@@ -16695,7 +16692,7 @@
         <v>3</v>
       </c>
       <c r="R8" s="185" t="b">
-        <f>D8+H8+L8='17.3. ДПО ГС'!M7+'17.3. ДПО ГС'!V7+'17.4. ДПО ГС'!L8</f>
+        <f>D8+H8+L8='17.3. ДПО ГС'!L7+'17.3. ДПО ГС'!T7+'17.4. ДПО ГС'!L8</f>
         <v>1</v>
       </c>
       <c r="S8" s="175">
@@ -16703,7 +16700,7 @@
         <v>17773</v>
       </c>
       <c r="T8" s="175">
-        <f>'17.3. ДПО ГС'!M7+'17.3. ДПО ГС'!V7+'17.4. ДПО ГС'!L8</f>
+        <f>'17.3. ДПО ГС'!L7+'17.3. ДПО ГС'!T7+'17.4. ДПО ГС'!L8</f>
         <v>17773</v>
       </c>
     </row>
@@ -16754,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="185" t="b">
-        <f>D9+H9+L9='17.3. ДПО ГС'!M8+'17.3. ДПО ГС'!V8+'17.4. ДПО ГС'!L9</f>
+        <f>D9+H9+L9='17.3. ДПО ГС'!L8+'17.3. ДПО ГС'!T8+'17.4. ДПО ГС'!L9</f>
         <v>0</v>
       </c>
       <c r="S9" s="175">
@@ -16762,7 +16759,7 @@
         <v>367.25</v>
       </c>
       <c r="T9" s="175">
-        <f>'17.3. ДПО ГС'!M8+'17.3. ДПО ГС'!V8+'17.4. ДПО ГС'!L9</f>
+        <f>'17.3. ДПО ГС'!L8+'17.3. ДПО ГС'!T8+'17.4. ДПО ГС'!L9</f>
         <v>1936.75</v>
       </c>
     </row>
@@ -16813,7 +16810,7 @@
         <v>438</v>
       </c>
       <c r="R10" s="185" t="b">
-        <f>D10+H10+L10='17.3. ДПО ГС'!M9+'17.3. ДПО ГС'!V9+'17.4. ДПО ГС'!L10</f>
+        <f>D10+H10+L10='17.3. ДПО ГС'!L9+'17.3. ДПО ГС'!T9+'17.4. ДПО ГС'!L10</f>
         <v>1</v>
       </c>
       <c r="S10" s="175">
@@ -16821,7 +16818,7 @@
         <v>2902</v>
       </c>
       <c r="T10" s="175">
-        <f>'17.3. ДПО ГС'!M9+'17.3. ДПО ГС'!V9+'17.4. ДПО ГС'!L10</f>
+        <f>'17.3. ДПО ГС'!L9+'17.3. ДПО ГС'!T9+'17.4. ДПО ГС'!L10</f>
         <v>2902</v>
       </c>
     </row>
@@ -16872,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="185" t="b">
-        <f>D11+H11+L11='17.3. ДПО ГС'!M10+'17.3. ДПО ГС'!V10+'17.4. ДПО ГС'!L11</f>
+        <f>D11+H11+L11='17.3. ДПО ГС'!L10+'17.3. ДПО ГС'!T10+'17.4. ДПО ГС'!L11</f>
         <v>1</v>
       </c>
       <c r="S11" s="175">
@@ -16880,7 +16877,7 @@
         <v>10648</v>
       </c>
       <c r="T11" s="175">
-        <f>'17.3. ДПО ГС'!M10+'17.3. ДПО ГС'!V10+'17.4. ДПО ГС'!L11</f>
+        <f>'17.3. ДПО ГС'!L10+'17.3. ДПО ГС'!T10+'17.4. ДПО ГС'!L11</f>
         <v>10648</v>
       </c>
     </row>
@@ -16931,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="185" t="b">
-        <f>D12+H12+L12='17.3. ДПО ГС'!M11+'17.3. ДПО ГС'!V11+'17.4. ДПО ГС'!L12</f>
+        <f>D12+H12+L12='17.3. ДПО ГС'!L11+'17.3. ДПО ГС'!T11+'17.4. ДПО ГС'!L12</f>
         <v>0</v>
       </c>
       <c r="S12" s="175">
@@ -16939,7 +16936,7 @@
         <v>2299</v>
       </c>
       <c r="T12" s="175">
-        <f>'17.3. ДПО ГС'!M11+'17.3. ДПО ГС'!V11+'17.4. ДПО ГС'!L12</f>
+        <f>'17.3. ДПО ГС'!L11+'17.3. ДПО ГС'!T11+'17.4. ДПО ГС'!L12</f>
         <v>2381</v>
       </c>
     </row>
@@ -16990,7 +16987,7 @@
         <v>8</v>
       </c>
       <c r="R13" s="185" t="b">
-        <f>D13+H13+L13='17.3. ДПО ГС'!M12+'17.3. ДПО ГС'!V12+'17.4. ДПО ГС'!L13</f>
+        <f>D13+H13+L13='17.3. ДПО ГС'!L12+'17.3. ДПО ГС'!T12+'17.4. ДПО ГС'!L13</f>
         <v>1</v>
       </c>
       <c r="S13" s="175">
@@ -16998,7 +16995,7 @@
         <v>2762</v>
       </c>
       <c r="T13" s="175">
-        <f>'17.3. ДПО ГС'!M12+'17.3. ДПО ГС'!V12+'17.4. ДПО ГС'!L13</f>
+        <f>'17.3. ДПО ГС'!L12+'17.3. ДПО ГС'!T12+'17.4. ДПО ГС'!L13</f>
         <v>2762</v>
       </c>
     </row>
@@ -17049,7 +17046,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="185" t="b">
-        <f>D14+H14+L14='17.3. ДПО ГС'!M13+'17.3. ДПО ГС'!V13+'17.4. ДПО ГС'!L14</f>
+        <f>D14+H14+L14='17.3. ДПО ГС'!L13+'17.3. ДПО ГС'!T13+'17.4. ДПО ГС'!L14</f>
         <v>0</v>
       </c>
       <c r="S14" s="175">
@@ -17057,7 +17054,7 @@
         <v>9455</v>
       </c>
       <c r="T14" s="175">
-        <f>'17.3. ДПО ГС'!M13+'17.3. ДПО ГС'!V13+'17.4. ДПО ГС'!L14</f>
+        <f>'17.3. ДПО ГС'!L13+'17.3. ДПО ГС'!T13+'17.4. ДПО ГС'!L14</f>
         <v>10394</v>
       </c>
     </row>
@@ -17108,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="185" t="b">
-        <f>D15+H15+L15='17.3. ДПО ГС'!M14+'17.3. ДПО ГС'!V14+'17.4. ДПО ГС'!L15</f>
+        <f>D15+H15+L15='17.3. ДПО ГС'!L14+'17.3. ДПО ГС'!T14+'17.4. ДПО ГС'!L15</f>
         <v>1</v>
       </c>
       <c r="S15" s="175">
@@ -17116,7 +17113,7 @@
         <v>1929</v>
       </c>
       <c r="T15" s="175">
-        <f>'17.3. ДПО ГС'!M14+'17.3. ДПО ГС'!V14+'17.4. ДПО ГС'!L15</f>
+        <f>'17.3. ДПО ГС'!L14+'17.3. ДПО ГС'!T14+'17.4. ДПО ГС'!L15</f>
         <v>1929</v>
       </c>
     </row>
@@ -17167,7 +17164,7 @@
         <v>3</v>
       </c>
       <c r="R16" s="185" t="b">
-        <f>D16+H16+L16='17.3. ДПО ГС'!M15+'17.3. ДПО ГС'!V15+'17.4. ДПО ГС'!L16</f>
+        <f>D16+H16+L16='17.3. ДПО ГС'!L15+'17.3. ДПО ГС'!T15+'17.4. ДПО ГС'!L16</f>
         <v>1</v>
       </c>
       <c r="S16" s="175">
@@ -17175,7 +17172,7 @@
         <v>6649</v>
       </c>
       <c r="T16" s="175">
-        <f>'17.3. ДПО ГС'!M15+'17.3. ДПО ГС'!V15+'17.4. ДПО ГС'!L16</f>
+        <f>'17.3. ДПО ГС'!L15+'17.3. ДПО ГС'!T15+'17.4. ДПО ГС'!L16</f>
         <v>6649</v>
       </c>
     </row>
@@ -17226,7 +17223,7 @@
         <v>9</v>
       </c>
       <c r="R17" s="185" t="b">
-        <f>D17+H17+L17='17.3. ДПО ГС'!M16+'17.3. ДПО ГС'!V16+'17.4. ДПО ГС'!L17</f>
+        <f>D17+H17+L17='17.3. ДПО ГС'!L16+'17.3. ДПО ГС'!T16+'17.4. ДПО ГС'!L17</f>
         <v>1</v>
       </c>
       <c r="S17" s="175">
@@ -17234,7 +17231,7 @@
         <v>6423</v>
       </c>
       <c r="T17" s="175">
-        <f>'17.3. ДПО ГС'!M16+'17.3. ДПО ГС'!V16+'17.4. ДПО ГС'!L17</f>
+        <f>'17.3. ДПО ГС'!L16+'17.3. ДПО ГС'!T16+'17.4. ДПО ГС'!L17</f>
         <v>6423</v>
       </c>
     </row>
@@ -17285,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="185" t="b">
-        <f>D18+H18+L18='17.3. ДПО ГС'!M17+'17.3. ДПО ГС'!V17+'17.4. ДПО ГС'!L18</f>
+        <f>D18+H18+L18='17.3. ДПО ГС'!L17+'17.3. ДПО ГС'!T17+'17.4. ДПО ГС'!L18</f>
         <v>1</v>
       </c>
       <c r="S18" s="175">
@@ -17293,7 +17290,7 @@
         <v>3311</v>
       </c>
       <c r="T18" s="175">
-        <f>'17.3. ДПО ГС'!M17+'17.3. ДПО ГС'!V17+'17.4. ДПО ГС'!L18</f>
+        <f>'17.3. ДПО ГС'!L17+'17.3. ДПО ГС'!T17+'17.4. ДПО ГС'!L18</f>
         <v>3311</v>
       </c>
     </row>
@@ -17344,7 +17341,7 @@
         <v>5</v>
       </c>
       <c r="R19" s="185" t="b">
-        <f>D19+H19+L19='17.3. ДПО ГС'!M18+'17.3. ДПО ГС'!V18+'17.4. ДПО ГС'!L19</f>
+        <f>D19+H19+L19='17.3. ДПО ГС'!L18+'17.3. ДПО ГС'!T18+'17.4. ДПО ГС'!L19</f>
         <v>0</v>
       </c>
       <c r="S19" s="175">
@@ -17352,7 +17349,7 @@
         <v>6017</v>
       </c>
       <c r="T19" s="175">
-        <f>'17.3. ДПО ГС'!M18+'17.3. ДПО ГС'!V18+'17.4. ДПО ГС'!L19</f>
+        <f>'17.3. ДПО ГС'!L18+'17.3. ДПО ГС'!T18+'17.4. ДПО ГС'!L19</f>
         <v>7231</v>
       </c>
     </row>
@@ -17403,7 +17400,7 @@
         <v>5</v>
       </c>
       <c r="R20" s="185" t="b">
-        <f>D20+H20+L20='17.3. ДПО ГС'!M19+'17.3. ДПО ГС'!V19+'17.4. ДПО ГС'!L20</f>
+        <f>D20+H20+L20='17.3. ДПО ГС'!L19+'17.3. ДПО ГС'!T19+'17.4. ДПО ГС'!L20</f>
         <v>1</v>
       </c>
       <c r="S20" s="175">
@@ -17411,7 +17408,7 @@
         <v>3337</v>
       </c>
       <c r="T20" s="175">
-        <f>'17.3. ДПО ГС'!M19+'17.3. ДПО ГС'!V19+'17.4. ДПО ГС'!L20</f>
+        <f>'17.3. ДПО ГС'!L19+'17.3. ДПО ГС'!T19+'17.4. ДПО ГС'!L20</f>
         <v>3337</v>
       </c>
     </row>
@@ -17462,7 +17459,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="185" t="b">
-        <f>D21+H21+L21='17.3. ДПО ГС'!M20+'17.3. ДПО ГС'!V20+'17.4. ДПО ГС'!L21</f>
+        <f>D21+H21+L21='17.3. ДПО ГС'!L20+'17.3. ДПО ГС'!T20+'17.4. ДПО ГС'!L21</f>
         <v>1</v>
       </c>
       <c r="S21" s="175">
@@ -17470,7 +17467,7 @@
         <v>2071</v>
       </c>
       <c r="T21" s="175">
-        <f>'17.3. ДПО ГС'!M20+'17.3. ДПО ГС'!V20+'17.4. ДПО ГС'!L21</f>
+        <f>'17.3. ДПО ГС'!L20+'17.3. ДПО ГС'!T20+'17.4. ДПО ГС'!L21</f>
         <v>2071</v>
       </c>
     </row>
@@ -17535,7 +17532,7 @@
         <v>489</v>
       </c>
       <c r="R22" s="185" t="b">
-        <f>D22+H22+L22='17.3. ДПО ГС'!M21+'17.3. ДПО ГС'!V21+'17.4. ДПО ГС'!L22</f>
+        <f>D22+H22+L22='17.3. ДПО ГС'!L21+'17.3. ДПО ГС'!T21+'17.4. ДПО ГС'!L22</f>
         <v>0</v>
       </c>
       <c r="S22" s="175">
@@ -17543,7 +17540,7 @@
         <v>75943.25</v>
       </c>
       <c r="T22" s="175">
-        <f>'17.3. ДПО ГС'!M21+'17.3. ДПО ГС'!V21+'17.4. ДПО ГС'!L22</f>
+        <f>'17.3. ДПО ГС'!L21+'17.3. ДПО ГС'!T21+'17.4. ДПО ГС'!L22</f>
         <v>79747.75</v>
       </c>
     </row>
@@ -17552,7 +17549,7 @@
     </row>
     <row r="24" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="284"/>
       <c r="D24" s="284"/>
@@ -17598,10 +17595,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V22"/>
+  <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17614,24 +17611,22 @@
     <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -17651,10 +17646,8 @@
       <c r="R1" s="50"/>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-    </row>
-    <row r="2" spans="2:22" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:20" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="278" t="s">
         <v>87</v>
       </c>
@@ -17676,10 +17669,8 @@
       <c r="R2" s="278"/>
       <c r="S2" s="278"/>
       <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-    </row>
-    <row r="3" spans="2:22" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -17699,10 +17690,8 @@
       <c r="R3" s="50"/>
       <c r="S3" s="50"/>
       <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-    </row>
-    <row r="4" spans="2:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="228" t="s">
         <v>14</v>
       </c>
@@ -17719,21 +17708,19 @@
       <c r="I4" s="290"/>
       <c r="J4" s="290"/>
       <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="288" t="s">
+      <c r="L4" s="291"/>
+      <c r="M4" s="288" t="s">
         <v>127</v>
       </c>
+      <c r="N4" s="288"/>
       <c r="O4" s="288"/>
       <c r="P4" s="288"/>
       <c r="Q4" s="288"/>
       <c r="R4" s="288"/>
       <c r="S4" s="288"/>
       <c r="T4" s="288"/>
-      <c r="U4" s="288"/>
-      <c r="V4" s="288"/>
-    </row>
-    <row r="5" spans="2:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="228"/>
       <c r="C5" s="215" t="s">
         <v>15</v>
@@ -17748,27 +17735,25 @@
       <c r="G5" s="241"/>
       <c r="H5" s="241"/>
       <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="256" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="256"/>
-      <c r="N5" s="240" t="s">
+      <c r="J5" s="242"/>
+      <c r="K5" s="267" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="267"/>
+      <c r="M5" s="240" t="s">
         <v>131</v>
       </c>
+      <c r="N5" s="241"/>
       <c r="O5" s="241"/>
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
-      <c r="R5" s="241"/>
-      <c r="S5" s="241"/>
-      <c r="T5" s="242"/>
-      <c r="U5" s="256" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="256"/>
-    </row>
-    <row r="6" spans="2:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="242"/>
+      <c r="S5" s="267" t="s">
+        <v>178</v>
+      </c>
+      <c r="T5" s="267"/>
+    </row>
+    <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
       <c r="C6" s="217"/>
       <c r="D6" s="293"/>
@@ -17788,51 +17773,45 @@
         <v>177</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="K6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="R6" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="S6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="T6" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="115">
-        <f>F7+O7</f>
+        <f>F7+N7</f>
         <v>1880</v>
       </c>
       <c r="D7" s="99">
@@ -17856,52 +17835,46 @@
         <v>0</v>
       </c>
       <c r="J7" s="96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="96">
-        <v>10</v>
+        <v>6513</v>
       </c>
       <c r="L7" s="96">
         <v>6513</v>
       </c>
       <c r="M7" s="96">
-        <v>6513</v>
+        <v>2059</v>
       </c>
       <c r="N7" s="96">
-        <v>2059</v>
-      </c>
-      <c r="O7" s="96">
         <v>1774</v>
       </c>
-      <c r="P7" s="99">
-        <f>O7/C7</f>
+      <c r="O7" s="99">
+        <f>N7/C7</f>
         <v>0.94361702127659575</v>
       </c>
+      <c r="P7" s="96">
+        <v>0</v>
+      </c>
       <c r="Q7" s="96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="96">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="S7" s="96">
-        <v>3</v>
+        <v>10783</v>
       </c>
       <c r="T7" s="96">
-        <v>264</v>
-      </c>
-      <c r="U7" s="96">
-        <v>10783</v>
-      </c>
-      <c r="V7" s="96">
         <v>10581</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="115">
-        <f t="shared" ref="C8:C21" si="0">F8+O8</f>
+        <f>F8+N8</f>
         <v>451</v>
       </c>
       <c r="D8" s="99">
@@ -17915,62 +17888,56 @@
         <v>18</v>
       </c>
       <c r="G8" s="99">
-        <f t="shared" ref="G8:G21" si="1">F8/C8</f>
+        <f t="shared" ref="G8:G21" si="0">F8/C8</f>
         <v>3.9911308203991129E-2</v>
       </c>
       <c r="H8" s="96">
         <v>13</v>
       </c>
       <c r="I8" s="96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="96">
-        <v>4</v>
+        <v>349.5</v>
       </c>
       <c r="L8" s="96">
-        <v>349.5</v>
+        <v>351</v>
       </c>
       <c r="M8" s="96">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="N8" s="96">
-        <v>382</v>
-      </c>
-      <c r="O8" s="96">
         <v>433</v>
       </c>
-      <c r="P8" s="99">
-        <f t="shared" ref="P8:P21" si="2">O8/C8</f>
+      <c r="O8" s="99">
+        <f>N8/C8</f>
         <v>0.96008869179600886</v>
       </c>
+      <c r="P8" s="96">
+        <v>335</v>
+      </c>
       <c r="Q8" s="96">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="R8" s="96">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="S8" s="96">
-        <v>1</v>
+        <v>1358.65</v>
       </c>
       <c r="T8" s="96">
-        <v>78</v>
-      </c>
-      <c r="U8" s="96">
-        <v>1358.65</v>
-      </c>
-      <c r="V8" s="96">
         <v>1416.25</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="115">
-        <f t="shared" si="0"/>
+        <f>F9+N9</f>
         <v>388</v>
       </c>
       <c r="D9" s="99">
@@ -17984,7 +17951,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9278350515463915E-2</v>
       </c>
       <c r="H9" s="96">
@@ -17994,52 +17961,46 @@
         <v>1</v>
       </c>
       <c r="J9" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="96">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="L9" s="96">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="M9" s="96">
-        <v>672</v>
+        <v>250</v>
       </c>
       <c r="N9" s="96">
-        <v>250</v>
-      </c>
-      <c r="O9" s="96">
         <v>365</v>
       </c>
-      <c r="P9" s="99">
-        <f t="shared" si="2"/>
+      <c r="O9" s="99">
+        <f>N9/C9</f>
         <v>0.94072164948453607</v>
       </c>
+      <c r="P9" s="96">
+        <v>62</v>
+      </c>
       <c r="Q9" s="96">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R9" s="96">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="S9" s="96">
-        <v>0</v>
+        <v>2405</v>
       </c>
       <c r="T9" s="96">
-        <v>42</v>
-      </c>
-      <c r="U9" s="96">
-        <v>2405</v>
-      </c>
-      <c r="V9" s="96">
         <v>2210</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="115">
-        <f t="shared" si="0"/>
+        <f>F10+N10</f>
         <v>1368</v>
       </c>
       <c r="D10" s="99">
@@ -18053,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="96">
@@ -18072,43 +18033,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="96">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="N10" s="96">
-        <v>1190</v>
-      </c>
-      <c r="O10" s="96">
         <v>1368</v>
       </c>
-      <c r="P10" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O10" s="99">
+        <f>N10/C10</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="96">
+        <v>0</v>
       </c>
       <c r="Q10" s="96">
         <v>0</v>
       </c>
-      <c r="R10" s="96">
-        <v>0</v>
+      <c r="R10" s="109">
+        <v>253</v>
       </c>
       <c r="S10" s="96">
-        <v>0</v>
-      </c>
-      <c r="T10" s="109">
-        <v>253</v>
-      </c>
-      <c r="U10" s="96">
         <v>6500</v>
       </c>
-      <c r="V10" s="96">
+      <c r="T10" s="96">
         <v>6748</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="106" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="115">
-        <f t="shared" si="0"/>
+        <f>F11+N11</f>
         <v>482</v>
       </c>
       <c r="D11" s="99">
@@ -18122,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="96">
@@ -18141,43 +18096,37 @@
         <v>0</v>
       </c>
       <c r="M11" s="96">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="N11" s="96">
         <v>482</v>
       </c>
-      <c r="O11" s="96">
-        <v>482</v>
-      </c>
-      <c r="P11" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O11" s="99">
+        <f>N11/C11</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="96">
+        <v>0</v>
       </c>
       <c r="Q11" s="96">
         <v>0</v>
       </c>
       <c r="R11" s="96">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="S11" s="96">
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="T11" s="96">
-        <v>228</v>
-      </c>
-      <c r="U11" s="96">
         <v>2381</v>
       </c>
-      <c r="V11" s="96">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="106" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="115">
-        <f t="shared" si="0"/>
+        <f>F12+N12</f>
         <v>604</v>
       </c>
       <c r="D12" s="99">
@@ -18191,17 +18140,17 @@
         <v>14</v>
       </c>
       <c r="G12" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3178807947019868E-2</v>
       </c>
       <c r="H12" s="96">
         <v>0</v>
       </c>
       <c r="I12" s="96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K12" s="96">
         <v>0</v>
@@ -18210,43 +18159,37 @@
         <v>0</v>
       </c>
       <c r="M12" s="96">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="N12" s="96">
-        <v>591</v>
-      </c>
-      <c r="O12" s="96">
         <v>590</v>
       </c>
-      <c r="P12" s="99">
-        <f t="shared" si="2"/>
+      <c r="O12" s="99">
+        <f>N12/C12</f>
         <v>0.97682119205298013</v>
       </c>
+      <c r="P12" s="96">
+        <v>49</v>
+      </c>
       <c r="Q12" s="96">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R12" s="96">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="S12" s="96">
-        <v>0</v>
+        <v>2734</v>
       </c>
       <c r="T12" s="96">
-        <v>0</v>
-      </c>
-      <c r="U12" s="96">
         <v>2734</v>
       </c>
-      <c r="V12" s="96">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="115">
-        <f t="shared" si="0"/>
+        <f>F13+N13</f>
         <v>1746</v>
       </c>
       <c r="D13" s="99">
@@ -18260,62 +18203,56 @@
         <v>46</v>
       </c>
       <c r="G13" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6345933562428408E-2</v>
       </c>
       <c r="H13" s="96">
         <v>0</v>
       </c>
       <c r="I13" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="96">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="L13" s="96">
-        <v>3200</v>
+        <v>1980</v>
       </c>
       <c r="M13" s="96">
-        <v>1980</v>
+        <v>1747</v>
       </c>
       <c r="N13" s="96">
-        <v>1747</v>
-      </c>
-      <c r="O13" s="96">
         <v>1700</v>
       </c>
-      <c r="P13" s="99">
-        <f t="shared" si="2"/>
+      <c r="O13" s="99">
+        <f>N13/C13</f>
         <v>0.97365406643757157</v>
       </c>
+      <c r="P13" s="96">
+        <v>133</v>
+      </c>
       <c r="Q13" s="96">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="R13" s="96">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="S13" s="96">
-        <v>10</v>
+        <v>7330</v>
       </c>
       <c r="T13" s="96">
-        <v>322</v>
-      </c>
-      <c r="U13" s="96">
-        <v>7330</v>
-      </c>
-      <c r="V13" s="96">
         <v>7324</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="106" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="115">
-        <f t="shared" si="0"/>
+        <f>F14+N14</f>
         <v>453</v>
       </c>
       <c r="D14" s="99">
@@ -18329,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="96">
@@ -18348,43 +18285,37 @@
         <v>0</v>
       </c>
       <c r="M14" s="96">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="N14" s="96">
-        <v>272</v>
-      </c>
-      <c r="O14" s="96">
         <v>453</v>
       </c>
-      <c r="P14" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="O14" s="99">
+        <f>N14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="96">
+        <v>0</v>
       </c>
       <c r="Q14" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="96">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="S14" s="96">
-        <v>1</v>
+        <v>2754</v>
       </c>
       <c r="T14" s="96">
-        <v>69</v>
-      </c>
-      <c r="U14" s="96">
-        <v>2754</v>
-      </c>
-      <c r="V14" s="96">
         <v>1906</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="115">
-        <f t="shared" si="0"/>
+        <f>F15+N15</f>
         <v>752</v>
       </c>
       <c r="D15" s="99">
@@ -18398,7 +18329,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3244680851063829E-2</v>
       </c>
       <c r="H15" s="96">
@@ -18408,52 +18339,46 @@
         <v>1</v>
       </c>
       <c r="J15" s="96">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="K15" s="96">
-        <v>53</v>
+        <v>533</v>
       </c>
       <c r="L15" s="96">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="M15" s="96">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="N15" s="96">
-        <v>428</v>
-      </c>
-      <c r="O15" s="96">
         <v>727</v>
       </c>
-      <c r="P15" s="99">
-        <f t="shared" si="2"/>
+      <c r="O15" s="99">
+        <f>N15/C15</f>
         <v>0.9667553191489362</v>
       </c>
+      <c r="P15" s="96">
+        <v>0</v>
+      </c>
       <c r="Q15" s="96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="96">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="S15" s="96">
-        <v>2</v>
+        <v>4786</v>
       </c>
       <c r="T15" s="96">
-        <v>131</v>
-      </c>
-      <c r="U15" s="96">
-        <v>4786</v>
-      </c>
-      <c r="V15" s="96">
         <v>4861</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="106" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="115">
-        <f t="shared" si="0"/>
+        <f>F16+N16</f>
         <v>815</v>
       </c>
       <c r="D16" s="99">
@@ -18467,62 +18392,56 @@
         <v>22</v>
       </c>
       <c r="G16" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6993865030674847E-2</v>
       </c>
       <c r="H16" s="96">
         <v>0</v>
       </c>
       <c r="I16" s="96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="96">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="L16" s="96">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="M16" s="96">
-        <v>263</v>
+        <v>853</v>
       </c>
       <c r="N16" s="96">
-        <v>853</v>
-      </c>
-      <c r="O16" s="96">
         <v>793</v>
       </c>
-      <c r="P16" s="99">
-        <f t="shared" si="2"/>
+      <c r="O16" s="99">
+        <f>N16/C16</f>
         <v>0.9730061349693252</v>
       </c>
+      <c r="P16" s="96">
+        <v>0</v>
+      </c>
       <c r="Q16" s="96">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R16" s="96">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="S16" s="96">
-        <v>7</v>
+        <v>6206</v>
       </c>
       <c r="T16" s="96">
-        <v>179</v>
-      </c>
-      <c r="U16" s="96">
-        <v>6206</v>
-      </c>
-      <c r="V16" s="96">
         <v>5725</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="106" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="115">
-        <f t="shared" si="0"/>
+        <f>F17+N17</f>
         <v>761</v>
       </c>
       <c r="D17" s="99">
@@ -18536,62 +18455,56 @@
         <v>18</v>
       </c>
       <c r="G17" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3653088042049936E-2</v>
       </c>
       <c r="H17" s="96">
         <v>0</v>
       </c>
       <c r="I17" s="96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="96">
         <v>0</v>
       </c>
       <c r="K17" s="96">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="L17" s="96">
         <v>378</v>
       </c>
       <c r="M17" s="96">
-        <v>378</v>
+        <v>678</v>
       </c>
       <c r="N17" s="96">
-        <v>678</v>
-      </c>
-      <c r="O17" s="96">
         <v>743</v>
       </c>
-      <c r="P17" s="99">
-        <f t="shared" si="2"/>
+      <c r="O17" s="99">
+        <f>N17/C17</f>
         <v>0.97634691195795009</v>
       </c>
+      <c r="P17" s="96">
+        <v>41</v>
+      </c>
       <c r="Q17" s="96">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R17" s="96">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="S17" s="96">
-        <v>1</v>
+        <v>2733</v>
       </c>
       <c r="T17" s="96">
-        <v>48</v>
-      </c>
-      <c r="U17" s="96">
         <v>2733</v>
       </c>
-      <c r="V17" s="96">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="106" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="115">
-        <f t="shared" si="0"/>
+        <f>F18+N18</f>
         <v>1073</v>
       </c>
       <c r="D18" s="99">
@@ -18605,62 +18518,56 @@
         <v>114</v>
       </c>
       <c r="G18" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.10624417520969245</v>
       </c>
       <c r="H18" s="96">
         <v>0</v>
       </c>
       <c r="I18" s="96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="96">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18" s="96">
-        <v>10</v>
+        <v>1002</v>
       </c>
       <c r="L18" s="96">
-        <v>1002</v>
+        <v>1304</v>
       </c>
       <c r="M18" s="96">
-        <v>1304</v>
+        <v>1131</v>
       </c>
       <c r="N18" s="96">
-        <v>1131</v>
-      </c>
-      <c r="O18" s="96">
         <v>959</v>
       </c>
-      <c r="P18" s="99">
-        <f t="shared" si="2"/>
+      <c r="O18" s="99">
+        <f>N18/C18</f>
         <v>0.89375582479030757</v>
       </c>
+      <c r="P18" s="96">
+        <v>262</v>
+      </c>
       <c r="Q18" s="96">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="R18" s="96">
-        <v>20</v>
+        <v>690</v>
       </c>
       <c r="S18" s="96">
-        <v>3</v>
+        <v>7635</v>
       </c>
       <c r="T18" s="96">
-        <v>690</v>
-      </c>
-      <c r="U18" s="96">
-        <v>7635</v>
-      </c>
-      <c r="V18" s="96">
         <v>5589</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="115">
-        <f t="shared" si="0"/>
+        <f>F19+N19</f>
         <v>572</v>
       </c>
       <c r="D19" s="99">
@@ -18674,62 +18581,56 @@
         <v>16</v>
       </c>
       <c r="G19" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="H19" s="96">
         <v>0</v>
       </c>
       <c r="I19" s="96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19" s="96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="96">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="L19" s="96">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="M19" s="96">
-        <v>217</v>
+        <v>430</v>
       </c>
       <c r="N19" s="96">
-        <v>430</v>
-      </c>
-      <c r="O19" s="96">
         <v>556</v>
       </c>
-      <c r="P19" s="99">
-        <f t="shared" si="2"/>
+      <c r="O19" s="99">
+        <f>N19/C19</f>
         <v>0.97202797202797198</v>
       </c>
+      <c r="P19" s="96">
+        <v>10</v>
+      </c>
       <c r="Q19" s="96">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R19" s="96">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="S19" s="96">
-        <v>4</v>
+        <v>3582</v>
       </c>
       <c r="T19" s="96">
-        <v>349</v>
-      </c>
-      <c r="U19" s="96">
-        <v>3582</v>
-      </c>
-      <c r="V19" s="96">
         <v>3120</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="106" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="115">
-        <f t="shared" si="0"/>
+        <f>F20+N20</f>
         <v>508</v>
       </c>
       <c r="D20" s="99">
@@ -18743,62 +18644,56 @@
         <v>16</v>
       </c>
       <c r="G20" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1496062992125984E-2</v>
       </c>
       <c r="H20" s="96">
         <v>0</v>
       </c>
       <c r="I20" s="96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J20" s="96">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K20" s="96">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="L20" s="96">
         <v>179</v>
       </c>
       <c r="M20" s="96">
-        <v>179</v>
+        <v>389</v>
       </c>
       <c r="N20" s="96">
-        <v>389</v>
-      </c>
-      <c r="O20" s="96">
         <v>492</v>
       </c>
-      <c r="P20" s="99">
-        <f t="shared" si="2"/>
+      <c r="O20" s="99">
+        <f>N20/C20</f>
         <v>0.96850393700787396</v>
       </c>
+      <c r="P20" s="96">
+        <v>15</v>
+      </c>
       <c r="Q20" s="96">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R20" s="96">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="S20" s="96">
-        <v>1</v>
+        <v>1798</v>
       </c>
       <c r="T20" s="96">
-        <v>260</v>
-      </c>
-      <c r="U20" s="96">
-        <v>1798</v>
-      </c>
-      <c r="V20" s="96">
         <v>1592</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="116">
-        <f t="shared" si="0"/>
+        <f>F21+N21</f>
         <v>11853</v>
       </c>
       <c r="D21" s="101">
@@ -18814,71 +18709,63 @@
         <v>418</v>
       </c>
       <c r="G21" s="101">
+        <f t="shared" si="0"/>
+        <v>3.526533367080064E-2</v>
+      </c>
+      <c r="H21" s="103">
+        <f t="shared" ref="H21:N21" si="1">SUM(H7:H20)</f>
+        <v>13</v>
+      </c>
+      <c r="I21" s="103">
         <f t="shared" si="1"/>
-        <v>3.526533367080064E-2</v>
-      </c>
-      <c r="H21" s="103">
-        <f t="shared" ref="H21:O21" si="3">SUM(H7:H20)</f>
-        <v>13</v>
-      </c>
-      <c r="I21" s="103">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J21" s="103">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="K21" s="103">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>13333.5</v>
       </c>
       <c r="L21" s="103">
-        <f t="shared" si="3"/>
-        <v>13333.5</v>
+        <f t="shared" si="1"/>
+        <v>12330</v>
       </c>
       <c r="M21" s="103">
-        <f t="shared" si="3"/>
-        <v>12330</v>
+        <f t="shared" si="1"/>
+        <v>10882</v>
       </c>
       <c r="N21" s="103">
-        <f t="shared" si="3"/>
-        <v>10882</v>
-      </c>
-      <c r="O21" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11435</v>
       </c>
-      <c r="P21" s="101">
+      <c r="O21" s="101">
+        <f>N21/C21</f>
+        <v>0.96473466632919935</v>
+      </c>
+      <c r="P21" s="103">
+        <f t="shared" ref="P21:T21" si="2">SUM(P7:P20)</f>
+        <v>907</v>
+      </c>
+      <c r="Q21" s="103">
         <f t="shared" si="2"/>
-        <v>0.96473466632919935</v>
-      </c>
-      <c r="Q21" s="103">
-        <f t="shared" ref="Q21:V21" si="4">SUM(Q7:Q20)</f>
-        <v>907</v>
+        <v>33</v>
       </c>
       <c r="R21" s="103">
-        <f t="shared" si="4"/>
-        <v>836</v>
+        <f t="shared" si="2"/>
+        <v>2913</v>
       </c>
       <c r="S21" s="103">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>62985.65</v>
       </c>
       <c r="T21" s="103">
-        <f t="shared" si="4"/>
-        <v>2913</v>
-      </c>
-      <c r="U21" s="103">
-        <f t="shared" si="4"/>
-        <v>62985.65</v>
-      </c>
-      <c r="V21" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>58920.25</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -18898,19 +18785,17 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="M5:R5"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C6"/>
@@ -18919,7 +18804,7 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -19002,7 +18887,7 @@
       <c r="I4" s="241"/>
       <c r="J4" s="242"/>
       <c r="K4" s="234" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L4" s="234"/>
     </row>
@@ -19030,11 +18915,11 @@
       <c r="C6" s="219"/>
       <c r="D6" s="295"/>
       <c r="E6" s="234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="234"/>
       <c r="G6" s="240" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H6" s="241"/>
       <c r="I6" s="242"/>
@@ -20312,7 +20197,7 @@
       <c r="E5" s="203"/>
       <c r="F5" s="204"/>
       <c r="G5" s="200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" s="202" t="s">
         <v>57</v>
@@ -20335,7 +20220,7 @@
         <v>144</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>141</v>
@@ -20345,7 +20230,7 @@
         <v>137</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>141</v>
@@ -20355,10 +20240,10 @@
         <v>144</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20408,7 +20293,7 @@
         <v>0.25039297272306982</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20458,7 +20343,7 @@
         <v>0.27700186219739292</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20508,7 +20393,7 @@
         <v>0.21748400852878466</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20558,7 +20443,7 @@
         <v>0.25584317667755718</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20608,7 +20493,7 @@
         <v>9.206054989187519E-2</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20658,7 +20543,7 @@
         <v>0.1678370786516854</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20708,7 +20593,7 @@
         <v>0.11803890221156409</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20758,7 +20643,7 @@
         <v>0.24752475247524752</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20808,7 +20693,7 @@
         <v>0.20688610662358642</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20858,7 +20743,7 @@
         <v>0.25387535590003163</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20908,7 +20793,7 @@
         <v>0.40148698884758366</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20958,7 +20843,7 @@
         <v>0.24943566591422123</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21008,7 +20893,7 @@
         <v>0.22752293577981653</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21058,7 +20943,7 @@
         <v>0.4390620178957112</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23697,7 +23582,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="198"/>
       <c r="G5" s="198"/>

--- a/data_xlsx/2023_full.xlsx
+++ b/data_xlsx/2023_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F3E89-2964-4592-9DDE-0EDF895A1A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448582F-FA1A-4E4D-9058-460FE7243BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1725" windowWidth="21600" windowHeight="13620" tabRatio="822" firstSheet="18" activeTab="24" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" activeTab="26" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -65,6 +65,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2387,52 +2400,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2441,6 +2421,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3456,7 +3469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA75172-9B2B-4FB0-A37A-592AACC7DCC7}">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4389,8 +4402,8 @@
   </sheetPr>
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5948,8 +5961,8 @@
   </sheetPr>
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7315,7 +7328,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7975,7 +7988,7 @@
   </sheetPr>
   <dimension ref="B1:T23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="65" zoomScaleNormal="90" zoomScaleSheetLayoutView="65" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9179,7 +9192,7 @@
   </sheetPr>
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10373,7 +10386,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10449,7 +10462,7 @@
       <c r="D4" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="256"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="200" t="s">
         <v>209</v>
       </c>
@@ -10473,21 +10486,21 @@
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="228"/>
       <c r="C5" s="249"/>
-      <c r="D5" s="250" t="s">
+      <c r="D5" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="262"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="231" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="262"/>
-      <c r="J5" s="254"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="260"/>
       <c r="K5" s="231" t="s">
         <v>15</v>
       </c>
@@ -10500,42 +10513,42 @@
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
       <c r="C6" s="249"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="262"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="251"/>
       <c r="G6" s="249"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="257"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="263"/>
       <c r="L6" s="231" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="258" t="s">
+      <c r="M6" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="267" t="s">
+      <c r="O6" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="264" t="s">
+      <c r="P6" s="250" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="228"/>
       <c r="C7" s="232"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="263"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="252"/>
       <c r="G7" s="232"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="261"/>
       <c r="K7" s="232"/>
       <c r="L7" s="232"/>
-      <c r="M7" s="261"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="264"/>
+      <c r="M7" s="267"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="250"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
@@ -11307,13 +11320,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B2:M2"/>
@@ -11327,6 +11333,13 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11342,7 +11355,7 @@
   </sheetPr>
   <dimension ref="B2:S21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="90" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12477,7 +12490,7 @@
   </sheetPr>
   <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13786,7 +13799,7 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -13877,7 +13890,7 @@
         <v>181</v>
       </c>
       <c r="L5" s="228"/>
-      <c r="N5" s="264" t="s">
+      <c r="N5" s="250" t="s">
         <v>170</v>
       </c>
     </row>
@@ -13913,7 +13926,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="264"/>
+      <c r="N6" s="250"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -14566,8 +14579,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14649,7 +14662,7 @@
       <c r="P4" s="206"/>
       <c r="Q4" s="206"/>
       <c r="R4" s="207"/>
-      <c r="T4" s="264" t="s">
+      <c r="T4" s="250" t="s">
         <v>174</v>
       </c>
     </row>
@@ -14675,7 +14688,7 @@
       <c r="P5" s="209"/>
       <c r="Q5" s="209"/>
       <c r="R5" s="210"/>
-      <c r="T5" s="264"/>
+      <c r="T5" s="250"/>
     </row>
     <row r="6" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
@@ -14727,7 +14740,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="264"/>
+      <c r="T6" s="250"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -17597,7 +17610,7 @@
   </sheetPr>
   <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -17736,10 +17749,10 @@
       <c r="H5" s="241"/>
       <c r="I5" s="241"/>
       <c r="J5" s="242"/>
-      <c r="K5" s="267" t="s">
+      <c r="K5" s="256" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="267"/>
+      <c r="L5" s="256"/>
       <c r="M5" s="240" t="s">
         <v>131</v>
       </c>
@@ -17748,10 +17761,10 @@
       <c r="P5" s="241"/>
       <c r="Q5" s="241"/>
       <c r="R5" s="242"/>
-      <c r="S5" s="267" t="s">
+      <c r="S5" s="256" t="s">
         <v>178</v>
       </c>
-      <c r="T5" s="267"/>
+      <c r="T5" s="256"/>
     </row>
     <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="228"/>
@@ -17811,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="115">
-        <f>F7+N7</f>
+        <f t="shared" ref="C7:C21" si="0">F7+N7</f>
         <v>1880</v>
       </c>
       <c r="D7" s="99">
@@ -17850,7 +17863,7 @@
         <v>1774</v>
       </c>
       <c r="O7" s="99">
-        <f>N7/C7</f>
+        <f t="shared" ref="O7:O21" si="1">N7/C7</f>
         <v>0.94361702127659575</v>
       </c>
       <c r="P7" s="96">
@@ -17874,7 +17887,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="115">
-        <f>F8+N8</f>
+        <f t="shared" si="0"/>
         <v>451</v>
       </c>
       <c r="D8" s="99">
@@ -17888,7 +17901,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="99">
-        <f t="shared" ref="G8:G21" si="0">F8/C8</f>
+        <f t="shared" ref="G8:G21" si="2">F8/C8</f>
         <v>3.9911308203991129E-2</v>
       </c>
       <c r="H8" s="96">
@@ -17913,7 +17926,7 @@
         <v>433</v>
       </c>
       <c r="O8" s="99">
-        <f>N8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.96008869179600886</v>
       </c>
       <c r="P8" s="96">
@@ -17937,7 +17950,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="115">
-        <f>F9+N9</f>
+        <f t="shared" si="0"/>
         <v>388</v>
       </c>
       <c r="D9" s="99">
@@ -17951,7 +17964,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.9278350515463915E-2</v>
       </c>
       <c r="H9" s="96">
@@ -17976,7 +17989,7 @@
         <v>365</v>
       </c>
       <c r="O9" s="99">
-        <f>N9/C9</f>
+        <f t="shared" si="1"/>
         <v>0.94072164948453607</v>
       </c>
       <c r="P9" s="96">
@@ -18000,7 +18013,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="115">
-        <f>F10+N10</f>
+        <f t="shared" si="0"/>
         <v>1368</v>
       </c>
       <c r="D10" s="99">
@@ -18014,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="96">
@@ -18039,7 +18052,7 @@
         <v>1368</v>
       </c>
       <c r="O10" s="99">
-        <f>N10/C10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="96">
@@ -18063,7 +18076,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="115">
-        <f>F11+N11</f>
+        <f t="shared" si="0"/>
         <v>482</v>
       </c>
       <c r="D11" s="99">
@@ -18077,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="96">
@@ -18102,7 +18115,7 @@
         <v>482</v>
       </c>
       <c r="O11" s="99">
-        <f>N11/C11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" s="96">
@@ -18126,7 +18139,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="115">
-        <f>F12+N12</f>
+        <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="D12" s="99">
@@ -18140,7 +18153,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3178807947019868E-2</v>
       </c>
       <c r="H12" s="96">
@@ -18165,7 +18178,7 @@
         <v>590</v>
       </c>
       <c r="O12" s="99">
-        <f>N12/C12</f>
+        <f t="shared" si="1"/>
         <v>0.97682119205298013</v>
       </c>
       <c r="P12" s="96">
@@ -18189,7 +18202,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="115">
-        <f>F13+N13</f>
+        <f t="shared" si="0"/>
         <v>1746</v>
       </c>
       <c r="D13" s="99">
@@ -18203,7 +18216,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6345933562428408E-2</v>
       </c>
       <c r="H13" s="96">
@@ -18228,7 +18241,7 @@
         <v>1700</v>
       </c>
       <c r="O13" s="99">
-        <f>N13/C13</f>
+        <f t="shared" si="1"/>
         <v>0.97365406643757157</v>
       </c>
       <c r="P13" s="96">
@@ -18252,7 +18265,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="115">
-        <f>F14+N14</f>
+        <f t="shared" si="0"/>
         <v>453</v>
       </c>
       <c r="D14" s="99">
@@ -18266,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="96">
@@ -18291,7 +18304,7 @@
         <v>453</v>
       </c>
       <c r="O14" s="99">
-        <f>N14/C14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P14" s="96">
@@ -18315,7 +18328,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="115">
-        <f>F15+N15</f>
+        <f t="shared" si="0"/>
         <v>752</v>
       </c>
       <c r="D15" s="99">
@@ -18329,7 +18342,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3244680851063829E-2</v>
       </c>
       <c r="H15" s="96">
@@ -18354,7 +18367,7 @@
         <v>727</v>
       </c>
       <c r="O15" s="99">
-        <f>N15/C15</f>
+        <f t="shared" si="1"/>
         <v>0.9667553191489362</v>
       </c>
       <c r="P15" s="96">
@@ -18378,7 +18391,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="115">
-        <f>F16+N16</f>
+        <f t="shared" si="0"/>
         <v>815</v>
       </c>
       <c r="D16" s="99">
@@ -18392,7 +18405,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6993865030674847E-2</v>
       </c>
       <c r="H16" s="96">
@@ -18417,7 +18430,7 @@
         <v>793</v>
       </c>
       <c r="O16" s="99">
-        <f>N16/C16</f>
+        <f t="shared" si="1"/>
         <v>0.9730061349693252</v>
       </c>
       <c r="P16" s="96">
@@ -18441,7 +18454,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="115">
-        <f>F17+N17</f>
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
       <c r="D17" s="99">
@@ -18455,7 +18468,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3653088042049936E-2</v>
       </c>
       <c r="H17" s="96">
@@ -18480,7 +18493,7 @@
         <v>743</v>
       </c>
       <c r="O17" s="99">
-        <f>N17/C17</f>
+        <f t="shared" si="1"/>
         <v>0.97634691195795009</v>
       </c>
       <c r="P17" s="96">
@@ -18504,7 +18517,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="115">
-        <f>F18+N18</f>
+        <f t="shared" si="0"/>
         <v>1073</v>
       </c>
       <c r="D18" s="99">
@@ -18518,7 +18531,7 @@
         <v>114</v>
       </c>
       <c r="G18" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10624417520969245</v>
       </c>
       <c r="H18" s="96">
@@ -18543,7 +18556,7 @@
         <v>959</v>
       </c>
       <c r="O18" s="99">
-        <f>N18/C18</f>
+        <f t="shared" si="1"/>
         <v>0.89375582479030757</v>
       </c>
       <c r="P18" s="96">
@@ -18567,7 +18580,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="115">
-        <f>F19+N19</f>
+        <f t="shared" si="0"/>
         <v>572</v>
       </c>
       <c r="D19" s="99">
@@ -18581,7 +18594,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7972027972027972E-2</v>
       </c>
       <c r="H19" s="96">
@@ -18606,7 +18619,7 @@
         <v>556</v>
       </c>
       <c r="O19" s="99">
-        <f>N19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.97202797202797198</v>
       </c>
       <c r="P19" s="96">
@@ -18630,7 +18643,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="115">
-        <f>F20+N20</f>
+        <f t="shared" si="0"/>
         <v>508</v>
       </c>
       <c r="D20" s="99">
@@ -18644,7 +18657,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1496062992125984E-2</v>
       </c>
       <c r="H20" s="96">
@@ -18669,7 +18682,7 @@
         <v>492</v>
       </c>
       <c r="O20" s="99">
-        <f>N20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.96850393700787396</v>
       </c>
       <c r="P20" s="96">
@@ -18693,7 +18706,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="116">
-        <f>F21+N21</f>
+        <f t="shared" si="0"/>
         <v>11853</v>
       </c>
       <c r="D21" s="101">
@@ -18709,59 +18722,59 @@
         <v>418</v>
       </c>
       <c r="G21" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.526533367080064E-2</v>
       </c>
       <c r="H21" s="103">
-        <f t="shared" ref="H21:N21" si="1">SUM(H7:H20)</f>
+        <f t="shared" ref="H21:N21" si="3">SUM(H7:H20)</f>
         <v>13</v>
       </c>
       <c r="I21" s="103">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="103">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="K21" s="103">
+        <f t="shared" si="3"/>
+        <v>13333.5</v>
+      </c>
+      <c r="L21" s="103">
+        <f t="shared" si="3"/>
+        <v>12330</v>
+      </c>
+      <c r="M21" s="103">
+        <f t="shared" si="3"/>
+        <v>10882</v>
+      </c>
+      <c r="N21" s="103">
+        <f t="shared" si="3"/>
+        <v>11435</v>
+      </c>
+      <c r="O21" s="101">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J21" s="103">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="K21" s="103">
-        <f t="shared" si="1"/>
-        <v>13333.5</v>
-      </c>
-      <c r="L21" s="103">
-        <f t="shared" si="1"/>
-        <v>12330</v>
-      </c>
-      <c r="M21" s="103">
-        <f t="shared" si="1"/>
-        <v>10882</v>
-      </c>
-      <c r="N21" s="103">
-        <f t="shared" si="1"/>
-        <v>11435</v>
-      </c>
-      <c r="O21" s="101">
-        <f>N21/C21</f>
         <v>0.96473466632919935</v>
       </c>
       <c r="P21" s="103">
-        <f t="shared" ref="P21:T21" si="2">SUM(P7:P20)</f>
+        <f t="shared" ref="P21:T21" si="4">SUM(P7:P20)</f>
         <v>907</v>
       </c>
       <c r="Q21" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="R21" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2913</v>
       </c>
       <c r="S21" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62985.65</v>
       </c>
       <c r="T21" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58920.25</v>
       </c>
     </row>
@@ -18816,7 +18829,7 @@
   </sheetPr>
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19553,7 +19566,7 @@
   </sheetPr>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -20124,7 +20137,7 @@
   </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -21027,7 +21040,7 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -21438,7 +21451,7 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -21849,7 +21862,7 @@
   </sheetPr>
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23476,7 +23489,7 @@
   </sheetPr>
   <dimension ref="B2:AA22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -25019,7 +25032,7 @@
   </sheetPr>
   <dimension ref="B2:Z21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/data_xlsx/2023_full.xlsx
+++ b/data_xlsx/2023_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladz\PycharmProjects\pythonProject\data_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448582F-FA1A-4E4D-9058-460FE7243BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD575CE-D8BB-4234-9D38-0CFAFA657A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" activeTab="26" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="822" firstSheet="12" activeTab="15" xr2:uid="{ADDD6972-5CC2-482C-B2BD-459C45434F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="52" r:id="rId1"/>
@@ -62,27 +62,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'6.1. Стаж ГС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'6.2. Стаж МС'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7. Сменяемость ГС'!$A$1:$Q$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'9. Конкурсы'!$A$1:$L$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="242">
   <si>
     <t>Республика Башкортостан</t>
   </si>
@@ -954,6 +941,9 @@
   <si>
     <t>Количество лиц, впервые поступивших на государственную службу</t>
   </si>
+  <si>
+    <t>общее</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1544,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2217,6 +2207,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2400,19 +2396,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2421,39 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2546,6 +2542,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2863,598 +2862,598 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="193" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="192"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="192"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="192"/>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="192"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="192"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="192"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="192"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="192"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="192"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="192"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="192"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
+      <c r="A12" s="194"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="192"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="192"/>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="192"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="192"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="192"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="192"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="192"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
+      <c r="A19" s="194"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="192"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="192"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
+      <c r="A21" s="194"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="192"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
+      <c r="A22" s="194"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="192"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="192"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="192"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="192"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="192"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
+      <c r="A26" s="194"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="192"/>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="192"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="192"/>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="192"/>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="192"/>
+      <c r="A30" s="194"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="192"/>
-      <c r="B31" s="192"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="192"/>
+      <c r="A31" s="194"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="192"/>
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
+      <c r="A32" s="194"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="192"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="192"/>
-      <c r="B34" s="192"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
+      <c r="A34" s="194"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="194"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="192"/>
-      <c r="B35" s="192"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
+      <c r="A35" s="194"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="194"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="192"/>
-      <c r="B36" s="192"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="192"/>
-      <c r="B37" s="192"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="192"/>
+      <c r="A37" s="194"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3483,15 +3482,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="H3" s="8"/>
@@ -3951,15 +3950,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="H3" s="8"/>
@@ -4426,19 +4425,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="K3" s="8"/>
@@ -5204,19 +5203,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="K3" s="8"/>
@@ -5989,71 +5988,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="228"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="197" t="s">
+      <c r="E3" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="200" t="s">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="N3" s="221" t="s">
+      <c r="N3" s="223" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="221" t="s">
+      <c r="O3" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="P3" s="221" t="s">
+      <c r="P3" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="Q3" s="224" t="s">
+      <c r="Q3" s="226" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="38" t="s">
         <v>58</v>
       </c>
@@ -6078,11 +6077,11 @@
       <c r="L4" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="201"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="225"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="227"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="106" t="s">
@@ -7009,32 +7008,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="227" t="s">
+      <c r="C4" s="229" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="228" t="s">
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
+      <c r="B5" s="230"/>
       <c r="C5" s="21" t="s">
         <v>62</v>
       </c>
@@ -7044,7 +7043,7 @@
       <c r="E5" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="228"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="2:6" ht="37.5" x14ac:dyDescent="0.2">
       <c r="B6" s="106" t="s">
@@ -7325,545 +7324,614 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37" style="2" customWidth="1"/>
-    <col min="3" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="37" style="2" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="13.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="230" t="s">
+    <row r="1" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-    </row>
-    <row r="2" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-    </row>
-    <row r="3" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-    </row>
-    <row r="4" spans="2:14" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="218" t="s">
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+    </row>
+    <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+    </row>
+    <row r="3" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+    </row>
+    <row r="4" spans="2:16" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="191"/>
+      <c r="D4" s="235" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234" t="s">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234" t="s">
+      <c r="I4" s="236"/>
+      <c r="J4" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="234"/>
-      <c r="J4" s="231" t="s">
+      <c r="K4" s="236"/>
+      <c r="L4" s="233" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="220"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>108</v>
-      </c>
+    <row r="5" spans="2:16" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="222"/>
+      <c r="C5" s="192" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="235"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="104" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="J5" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="K5" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="232"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="234"/>
       <c r="N5" s="70"/>
-    </row>
-    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="300">
+        <f>D6+L6</f>
+        <v>104</v>
+      </c>
+      <c r="D6" s="136">
         <v>36</v>
       </c>
-      <c r="D6" s="136">
+      <c r="E6" s="136"/>
+      <c r="F6" s="136">
         <v>3</v>
       </c>
-      <c r="E6" s="151">
-        <f>D6/C6</f>
+      <c r="G6" s="151">
+        <f>F6/D6</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="136">
+      <c r="H6" s="136">
         <v>19</v>
       </c>
-      <c r="G6" s="151">
-        <f>F6/C6</f>
+      <c r="I6" s="151">
+        <f>H6/D6</f>
         <v>0.52777777777777779</v>
       </c>
-      <c r="H6" s="136">
-        <v>0</v>
-      </c>
-      <c r="I6" s="151">
-        <f>H6/C6</f>
-        <v>0</v>
-      </c>
       <c r="J6" s="136">
+        <v>0</v>
+      </c>
+      <c r="K6" s="151">
+        <f>J6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="136">
         <v>68</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-    </row>
-    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="30"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+    </row>
+    <row r="7" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="136">
-        <v>1</v>
+      <c r="C7" s="300">
+        <f t="shared" ref="C7:C19" si="0">D7+L7</f>
+        <v>8</v>
       </c>
       <c r="D7" s="136">
-        <v>0</v>
-      </c>
-      <c r="E7" s="151">
-        <f>D7/C7</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E7" s="136"/>
       <c r="F7" s="136">
         <v>0</v>
       </c>
       <c r="G7" s="151">
-        <f>F7/C7</f>
+        <f>F7/D7</f>
         <v>0</v>
       </c>
       <c r="H7" s="136">
         <v>0</v>
       </c>
       <c r="I7" s="151">
-        <f>H7/C7</f>
+        <f>H7/D7</f>
         <v>0</v>
       </c>
       <c r="J7" s="136">
+        <v>0</v>
+      </c>
+      <c r="K7" s="151">
+        <f>J7/D7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="136">
         <v>7</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="30"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+    </row>
+    <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="300">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="136">
         <v>13</v>
       </c>
-      <c r="D8" s="136">
-        <v>0</v>
-      </c>
-      <c r="E8" s="151">
-        <f>D8/C8</f>
-        <v>0</v>
-      </c>
+      <c r="E8" s="136"/>
       <c r="F8" s="136">
+        <v>0</v>
+      </c>
+      <c r="G8" s="151">
+        <f>F8/D8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="136">
         <v>4</v>
       </c>
-      <c r="G8" s="151">
-        <f>F8/C8</f>
+      <c r="I8" s="151">
+        <f>H8/D8</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="H8" s="136">
-        <v>0</v>
-      </c>
-      <c r="I8" s="151">
-        <f>H8/C8</f>
-        <v>0</v>
-      </c>
       <c r="J8" s="136">
+        <v>0</v>
+      </c>
+      <c r="K8" s="151">
+        <f>J8/D8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="136">
         <v>27</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-    </row>
-    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="30"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+    </row>
+    <row r="9" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="300">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="D9" s="136">
         <v>65</v>
       </c>
-      <c r="D9" s="136">
+      <c r="E9" s="136"/>
+      <c r="F9" s="136">
         <v>4</v>
       </c>
-      <c r="E9" s="151">
-        <f>D9/C9</f>
+      <c r="G9" s="151">
+        <f>F9/D9</f>
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="F9" s="136">
+      <c r="H9" s="136">
         <v>48</v>
       </c>
-      <c r="G9" s="151">
-        <f>F9/C9</f>
+      <c r="I9" s="151">
+        <f>H9/D9</f>
         <v>0.7384615384615385</v>
       </c>
-      <c r="H9" s="136">
-        <v>0</v>
-      </c>
-      <c r="I9" s="151">
-        <f>H9/C9</f>
-        <v>0</v>
-      </c>
       <c r="J9" s="136">
+        <v>0</v>
+      </c>
+      <c r="K9" s="151">
+        <f>J9/D9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="136">
         <v>106</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-    </row>
-    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="30"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+    </row>
+    <row r="10" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="136">
-        <v>1</v>
+      <c r="C10" s="300">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D10" s="136">
-        <v>0</v>
-      </c>
-      <c r="E10" s="151">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E10" s="136"/>
       <c r="F10" s="136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="151">
         <v>0</v>
       </c>
       <c r="H10" s="136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="151">
         <v>0</v>
       </c>
       <c r="J10" s="136">
-        <v>1</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-    </row>
-    <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="151">
+        <v>0</v>
+      </c>
+      <c r="L10" s="136">
+        <v>1</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+    </row>
+    <row r="11" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="300">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="D11" s="136">
         <v>82</v>
       </c>
-      <c r="D11" s="136">
+      <c r="E11" s="136"/>
+      <c r="F11" s="136">
         <v>31</v>
       </c>
-      <c r="E11" s="151">
-        <f t="shared" ref="E11:E17" si="0">D11/C11</f>
+      <c r="G11" s="151">
+        <f>F11/D11</f>
         <v>0.37804878048780488</v>
       </c>
-      <c r="F11" s="174">
+      <c r="H11" s="174">
         <v>58</v>
       </c>
-      <c r="G11" s="151">
-        <f t="shared" ref="G11:G17" si="1">F11/C11</f>
+      <c r="I11" s="151">
+        <f>H11/D11</f>
         <v>0.70731707317073167</v>
       </c>
-      <c r="H11" s="136">
-        <v>0</v>
-      </c>
-      <c r="I11" s="151">
-        <f t="shared" ref="I11:I17" si="2">H11/C11</f>
-        <v>0</v>
-      </c>
       <c r="J11" s="136">
+        <v>0</v>
+      </c>
+      <c r="K11" s="151">
+        <f>J11/D11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="136">
         <v>443</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-    </row>
-    <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="30"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="300">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="D12" s="136">
         <v>84</v>
       </c>
-      <c r="D12" s="136">
+      <c r="E12" s="136"/>
+      <c r="F12" s="136">
         <v>3</v>
       </c>
-      <c r="E12" s="151">
-        <f t="shared" si="0"/>
+      <c r="G12" s="151">
+        <f>F12/D12</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="F12" s="136">
+      <c r="H12" s="136">
         <v>14</v>
       </c>
-      <c r="G12" s="151">
-        <f t="shared" si="1"/>
+      <c r="I12" s="151">
+        <f>H12/D12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H12" s="136">
-        <v>0</v>
-      </c>
-      <c r="I12" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J12" s="136">
+        <v>0</v>
+      </c>
+      <c r="K12" s="151">
+        <f>J12/D12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="136">
         <v>71</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-    </row>
-    <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="30"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+    </row>
+    <row r="13" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="300">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="136">
         <v>14</v>
       </c>
-      <c r="D13" s="136">
-        <v>0</v>
-      </c>
-      <c r="E13" s="151">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="136"/>
       <c r="F13" s="136">
+        <v>0</v>
+      </c>
+      <c r="G13" s="151">
+        <f>F13/D13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="136">
         <v>14</v>
       </c>
-      <c r="G13" s="151">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="136">
-        <v>0</v>
-      </c>
       <c r="I13" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>H13/D13</f>
+        <v>1</v>
       </c>
       <c r="J13" s="136">
+        <v>0</v>
+      </c>
+      <c r="K13" s="151">
+        <f>J13/D13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="136">
         <v>26</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-    </row>
-    <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="30"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+    </row>
+    <row r="14" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="300">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="136">
         <v>18</v>
       </c>
-      <c r="D14" s="136">
-        <v>1</v>
-      </c>
-      <c r="E14" s="151">
-        <f t="shared" si="0"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136">
+        <v>1</v>
+      </c>
+      <c r="G14" s="151">
+        <f>F14/D14</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F14" s="136">
+      <c r="H14" s="136">
         <v>14</v>
       </c>
-      <c r="G14" s="151">
-        <f t="shared" si="1"/>
+      <c r="I14" s="151">
+        <f>H14/D14</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="H14" s="136">
-        <v>0</v>
-      </c>
-      <c r="I14" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J14" s="136">
+        <v>0</v>
+      </c>
+      <c r="K14" s="151">
+        <f>J14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="136">
         <v>16</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-    </row>
-    <row r="15" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="30"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+    </row>
+    <row r="15" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="300">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D15" s="136">
         <v>101</v>
       </c>
-      <c r="D15" s="136">
+      <c r="E15" s="136"/>
+      <c r="F15" s="136">
         <v>9</v>
       </c>
-      <c r="E15" s="151">
-        <f t="shared" si="0"/>
+      <c r="G15" s="151">
+        <f>F15/D15</f>
         <v>8.9108910891089105E-2</v>
       </c>
-      <c r="F15" s="136">
+      <c r="H15" s="136">
         <v>38</v>
       </c>
-      <c r="G15" s="151">
-        <f t="shared" si="1"/>
+      <c r="I15" s="151">
+        <f>H15/D15</f>
         <v>0.37623762376237624</v>
       </c>
-      <c r="H15" s="136">
-        <v>0</v>
-      </c>
-      <c r="I15" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J15" s="136">
+        <v>0</v>
+      </c>
+      <c r="K15" s="151">
+        <f>J15/D15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="136">
         <v>31</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-    </row>
-    <row r="16" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="30"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+    </row>
+    <row r="16" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="300">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D16" s="136">
         <v>35</v>
       </c>
-      <c r="D16" s="136">
-        <v>0</v>
-      </c>
-      <c r="E16" s="151">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E16" s="136"/>
       <c r="F16" s="136">
+        <v>0</v>
+      </c>
+      <c r="G16" s="151">
+        <f>F16/D16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="136">
         <v>20</v>
       </c>
-      <c r="G16" s="151">
-        <f t="shared" si="1"/>
+      <c r="I16" s="151">
+        <f>H16/D16</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="H16" s="136">
-        <v>0</v>
-      </c>
-      <c r="I16" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J16" s="136">
+        <v>0</v>
+      </c>
+      <c r="K16" s="151">
+        <f>J16/D16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="136">
         <v>77</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-    </row>
-    <row r="17" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="30"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+    </row>
+    <row r="17" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="300">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D17" s="136">
         <v>14</v>
       </c>
-      <c r="D17" s="136">
+      <c r="E17" s="136"/>
+      <c r="F17" s="136">
         <v>3</v>
       </c>
-      <c r="E17" s="151">
-        <f t="shared" si="0"/>
+      <c r="G17" s="151">
+        <f>F17/D17</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="F17" s="136">
+      <c r="H17" s="136">
         <v>13</v>
       </c>
-      <c r="G17" s="151">
-        <f t="shared" si="1"/>
+      <c r="I17" s="151">
+        <f>H17/D17</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="H17" s="136">
-        <v>0</v>
-      </c>
-      <c r="I17" s="151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J17" s="136">
+        <v>0</v>
+      </c>
+      <c r="K17" s="151">
+        <f>J17/D17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="136">
         <v>43</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-    </row>
-    <row r="18" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="30"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+    </row>
+    <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="136">
-        <v>0</v>
+      <c r="C18" s="300">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D18" s="136">
         <v>0</v>
       </c>
-      <c r="E18" s="151">
-        <v>0</v>
-      </c>
+      <c r="E18" s="136"/>
       <c r="F18" s="136">
         <v>0</v>
       </c>
@@ -7877,106 +7945,119 @@
         <v>0</v>
       </c>
       <c r="J18" s="136">
-        <v>1</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-    </row>
-    <row r="19" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="151">
+        <v>0</v>
+      </c>
+      <c r="L18" s="136">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+    </row>
+    <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="300">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="D19" s="136">
         <v>110</v>
       </c>
-      <c r="D19" s="136">
+      <c r="E19" s="136"/>
+      <c r="F19" s="136">
         <v>14</v>
       </c>
-      <c r="E19" s="151">
-        <f>D19/C19</f>
+      <c r="G19" s="151">
+        <f>F19/D19</f>
         <v>0.12727272727272726</v>
       </c>
-      <c r="F19" s="136">
+      <c r="H19" s="136">
         <v>50</v>
       </c>
-      <c r="G19" s="151">
-        <f>F19/C19</f>
+      <c r="I19" s="151">
+        <f>H19/D19</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="H19" s="136">
-        <v>0</v>
-      </c>
-      <c r="I19" s="151">
-        <f>H19/C19</f>
-        <v>0</v>
-      </c>
       <c r="J19" s="136">
+        <v>0</v>
+      </c>
+      <c r="K19" s="151">
+        <f>J19/D19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="136">
         <v>74</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-    </row>
-    <row r="20" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="30"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+    </row>
+    <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="102">
-        <f>SUM(C6:C19)</f>
-        <v>574</v>
-      </c>
+      <c r="C20" s="107"/>
       <c r="D20" s="102">
         <f>SUM(D6:D19)</f>
-        <v>68</v>
-      </c>
-      <c r="E20" s="153">
-        <f>D20/C20</f>
-        <v>0.11846689895470383</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="E20" s="102"/>
       <c r="F20" s="102">
         <f>SUM(F6:F19)</f>
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="G20" s="153">
-        <f>F20/C20</f>
-        <v>0.51045296167247389</v>
+        <f>F20/D20</f>
+        <v>0.11846689895470383</v>
       </c>
       <c r="H20" s="102">
         <f>SUM(H6:H19)</f>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="I20" s="153">
-        <f>H20/C20</f>
-        <v>0</v>
+        <f>H20/D20</f>
+        <v>0.51045296167247389</v>
       </c>
       <c r="J20" s="102">
         <f>SUM(J6:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="153">
+        <f>J20/D20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="102">
+        <f>SUM(L6:L19)</f>
         <v>991</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="8">
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8017,44 +8098,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="232" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
     </row>
     <row r="2" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
     </row>
     <row r="3" spans="2:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
@@ -8067,70 +8148,70 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
     </row>
     <row r="4" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="236" t="s">
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="238"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="240"/>
     </row>
     <row r="5" spans="2:20" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="234" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="236" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234" t="s">
+      <c r="H5" s="236"/>
+      <c r="I5" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234" t="s">
+      <c r="J5" s="236"/>
+      <c r="K5" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="234"/>
-      <c r="M5" s="197" t="s">
+      <c r="L5" s="236"/>
+      <c r="M5" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="197" t="s">
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="199" t="s">
         <v>164</v>
       </c>
-      <c r="R5" s="199"/>
+      <c r="R5" s="201"/>
     </row>
     <row r="6" spans="2:20" ht="182.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="228"/>
+      <c r="B6" s="230"/>
       <c r="C6" s="38" t="s">
         <v>165</v>
       </c>
@@ -9142,25 +9223,25 @@
     </row>
     <row r="22" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="235" t="s">
+      <c r="B23" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="235"/>
-      <c r="N23" s="235"/>
-      <c r="O23" s="235"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
+      <c r="C23" s="237"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="237"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="237"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -9239,25 +9320,25 @@
       <c r="R1" s="40"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
@@ -9271,98 +9352,98 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="238"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="240"/>
     </row>
     <row r="5" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="231" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="233" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="243" t="s">
+      <c r="E5" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="243" t="s">
+      <c r="F5" s="246"/>
+      <c r="G5" s="245" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="244"/>
-      <c r="I5" s="243" t="s">
+      <c r="H5" s="246"/>
+      <c r="I5" s="245" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="244"/>
-      <c r="K5" s="240" t="s">
+      <c r="J5" s="246"/>
+      <c r="K5" s="242" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="241"/>
-      <c r="M5" s="241"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="241"/>
-      <c r="Q5" s="241"/>
-      <c r="R5" s="242"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
+      <c r="R5" s="244"/>
     </row>
     <row r="6" spans="2:18" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="228"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="246"/>
-      <c r="K6" s="240" t="s">
+      <c r="B6" s="230"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="247"/>
+      <c r="J6" s="248"/>
+      <c r="K6" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="248"/>
-      <c r="M6" s="197" t="s">
+      <c r="L6" s="250"/>
+      <c r="M6" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="247"/>
-      <c r="O6" s="197" t="s">
+      <c r="N6" s="249"/>
+      <c r="O6" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="197" t="s">
+      <c r="P6" s="249"/>
+      <c r="Q6" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="R6" s="247"/>
+      <c r="R6" s="249"/>
     </row>
     <row r="7" spans="2:18" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="228"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="232"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="234"/>
       <c r="E7" s="104" t="s">
         <v>64</v>
       </c>
@@ -10330,25 +10411,25 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="239" t="s">
+      <c r="B24" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="239"/>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="239"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -10424,20 +10505,20 @@
       <c r="L1" s="40"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
@@ -10447,108 +10528,108 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
       <c r="K3" s="27"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="233" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="262"/>
-      <c r="F4" s="200" t="s">
+      <c r="E4" s="258"/>
+      <c r="F4" s="202" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="200" t="s">
+      <c r="H4" s="240"/>
+      <c r="I4" s="202" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="253" t="s">
+      <c r="J4" s="255" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="230"/>
       <c r="O4" s="76"/>
     </row>
     <row r="5" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="257" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="252" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="264" t="s">
+      <c r="E5" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="231" t="s">
+      <c r="F5" s="264"/>
+      <c r="G5" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="253" t="s">
+      <c r="H5" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="251"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="231" t="s">
+      <c r="I5" s="264"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="233" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="228" t="s">
+      <c r="L5" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="228"/>
+      <c r="M5" s="230"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="228"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="231" t="s">
+      <c r="B6" s="230"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="233" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="264" t="s">
+      <c r="M6" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="256" t="s">
+      <c r="O6" s="269" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="250" t="s">
+      <c r="P6" s="266" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="228"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="267"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="250"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="268"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="263"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="266"/>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
@@ -11320,6 +11401,13 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="20">
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B2:M2"/>
@@ -11333,13 +11421,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11379,93 +11460,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
     </row>
     <row r="4" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="197" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="199" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="197" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="197" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="199"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="201"/>
     </row>
     <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="195"/>
-      <c r="C5" s="200" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="200" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="H5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="203"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="200" t="s">
+      <c r="I5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="202" t="s">
+      <c r="L5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="200" t="s">
+      <c r="M5" s="205"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="202" t="s">
         <v>218</v>
       </c>
-      <c r="P5" s="202" t="s">
+      <c r="P5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="204"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="206"/>
     </row>
     <row r="6" spans="2:19" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196"/>
-      <c r="C6" s="201"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="203"/>
       <c r="D6" s="20" t="s">
         <v>140</v>
       </c>
@@ -11475,7 +11556,7 @@
       <c r="F6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="201"/>
+      <c r="G6" s="203"/>
       <c r="H6" s="20" t="s">
         <v>140</v>
       </c>
@@ -11485,7 +11566,7 @@
       <c r="J6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="201"/>
+      <c r="K6" s="203"/>
       <c r="L6" s="20" t="s">
         <v>137</v>
       </c>
@@ -11495,7 +11576,7 @@
       <c r="N6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="201"/>
+      <c r="O6" s="203"/>
       <c r="P6" s="20" t="s">
         <v>136</v>
       </c>
@@ -12540,26 +12621,26 @@
       <c r="S1" s="46"/>
     </row>
     <row r="2" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
     </row>
     <row r="3" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
@@ -12576,80 +12657,80 @@
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
       <c r="O3" s="46"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="226"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="221" t="s">
+      <c r="C4" s="223" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="270" t="s">
+      <c r="D4" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="238" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="238"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="240"/>
     </row>
     <row r="5" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="221" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="221" t="s">
+      <c r="F5" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="275" t="s">
+      <c r="G5" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="221" t="s">
+      <c r="H5" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="275" t="s">
+      <c r="I5" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="274"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="275"/>
+      <c r="Q5" s="275"/>
+      <c r="R5" s="275"/>
+      <c r="S5" s="276"/>
     </row>
     <row r="6" spans="2:21" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="228"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="271"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="273"/>
       <c r="J6" s="24" t="s">
         <v>154</v>
       </c>
@@ -13746,26 +13827,26 @@
       <c r="U22" s="179"/>
     </row>
     <row r="23" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="268"/>
-      <c r="D23" s="268"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="268"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="268"/>
-      <c r="J23" s="268"/>
-      <c r="K23" s="268"/>
-      <c r="L23" s="268"/>
-      <c r="M23" s="268"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="268"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="268"/>
-      <c r="S23" s="268"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="270"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -13825,19 +13906,19 @@
       <c r="J1" s="50"/>
     </row>
     <row r="2" spans="2:14" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
     </row>
     <row r="3" spans="2:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
@@ -13852,50 +13933,50 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="236" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="234"/>
-      <c r="E4" s="276" t="s">
+      <c r="D4" s="236"/>
+      <c r="E4" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
     </row>
     <row r="5" spans="2:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="240" t="s">
+      <c r="F5" s="236"/>
+      <c r="G5" s="242" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="242"/>
-      <c r="I5" s="234" t="s">
+      <c r="H5" s="244"/>
+      <c r="I5" s="236" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="234"/>
-      <c r="K5" s="228" t="s">
+      <c r="J5" s="236"/>
+      <c r="K5" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="228"/>
-      <c r="N5" s="250" t="s">
+      <c r="L5" s="230"/>
+      <c r="N5" s="266" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="228"/>
+      <c r="B6" s="230"/>
       <c r="C6" s="31" t="s">
         <v>77</v>
       </c>
@@ -13926,7 +14007,7 @@
       <c r="L6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="250"/>
+      <c r="N6" s="266"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -14612,86 +14693,86 @@
       <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
     </row>
     <row r="3" spans="1:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="230" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="236" t="s">
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="205" t="s">
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="207"/>
-      <c r="T4" s="250" t="s">
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="209"/>
+      <c r="T4" s="266" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228" t="s">
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="208"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="210"/>
-      <c r="T5" s="250"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="212"/>
+      <c r="T5" s="266"/>
     </row>
     <row r="6" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="228"/>
+      <c r="B6" s="230"/>
       <c r="C6" s="24" t="s">
         <v>77</v>
       </c>
@@ -14740,7 +14821,7 @@
       <c r="R6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="250"/>
+      <c r="T6" s="266"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
@@ -15807,16 +15888,16 @@
       <c r="I1" s="50"/>
     </row>
     <row r="2" spans="2:15" s="43" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
     </row>
     <row r="3" spans="2:15" s="43" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
@@ -15829,54 +15910,54 @@
       <c r="I3" s="50"/>
     </row>
     <row r="4" spans="2:15" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="281" t="s">
+      <c r="D4" s="246"/>
+      <c r="E4" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="283"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="285"/>
     </row>
     <row r="5" spans="2:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="231" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="231" t="s">
+      <c r="F5" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="279" t="s">
+      <c r="G5" s="281" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="231" t="s">
+      <c r="H5" s="233" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="231" t="s">
+      <c r="I5" s="233" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="244.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="220"/>
+      <c r="B6" s="222"/>
       <c r="C6" s="104" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
       <c r="O6" s="43"/>
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16428,14 +16509,14 @@
       <c r="B22" s="51"/>
     </row>
     <row r="23" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="277"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="277"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="277"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="279"/>
+      <c r="D23" s="279"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="279"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -16500,23 +16581,23 @@
       <c r="N1" s="50"/>
     </row>
     <row r="2" spans="2:20" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
     </row>
     <row r="3" spans="2:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
@@ -16534,46 +16615,46 @@
       <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:20" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="241"/>
-      <c r="P4" s="242"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="244"/>
     </row>
     <row r="5" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="245" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="245" t="s">
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="245" t="s">
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="287"/>
+      <c r="K5" s="247" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="246"/>
+      <c r="L5" s="287"/>
+      <c r="M5" s="287"/>
+      <c r="N5" s="248"/>
       <c r="O5" s="133" t="s">
         <v>175</v>
       </c>
@@ -16582,38 +16663,38 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
-      <c r="C6" s="240" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="242" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240" t="s">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="240" t="s">
+      <c r="F6" s="244"/>
+      <c r="G6" s="242" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="242"/>
-      <c r="I6" s="240" t="s">
+      <c r="H6" s="244"/>
+      <c r="I6" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="242"/>
-      <c r="K6" s="240" t="s">
+      <c r="J6" s="244"/>
+      <c r="K6" s="242" t="s">
         <v>189</v>
       </c>
-      <c r="L6" s="242"/>
-      <c r="M6" s="240" t="s">
+      <c r="L6" s="244"/>
+      <c r="M6" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="242"/>
-      <c r="O6" s="286" t="s">
+      <c r="N6" s="244"/>
+      <c r="O6" s="288" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="287"/>
+      <c r="P6" s="289"/>
     </row>
     <row r="7" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="220"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="25" t="s">
         <v>118</v>
       </c>
@@ -17561,23 +17642,23 @@
       <c r="B23" s="51"/>
     </row>
     <row r="24" spans="2:20" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="284" t="s">
+      <c r="B24" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="284"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="284"/>
-      <c r="O24" s="284"/>
-      <c r="P24" s="284"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="286"/>
+      <c r="I24" s="286"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="286"/>
+      <c r="L24" s="286"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="286"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="286"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
@@ -17661,27 +17742,27 @@
       <c r="T1" s="50"/>
     </row>
     <row r="2" spans="2:20" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
-      <c r="R2" s="278"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+      <c r="Q2" s="280"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="280"/>
+      <c r="T2" s="280"/>
     </row>
     <row r="3" spans="2:20" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
@@ -17705,71 +17786,71 @@
       <c r="T3" s="50"/>
     </row>
     <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="289" t="s">
+      <c r="D4" s="206"/>
+      <c r="E4" s="291" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="288" t="s">
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="293"/>
+      <c r="M4" s="290" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="288"/>
-      <c r="O4" s="288"/>
-      <c r="P4" s="288"/>
-      <c r="Q4" s="288"/>
-      <c r="R4" s="288"/>
-      <c r="S4" s="288"/>
-      <c r="T4" s="288"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="290"/>
+      <c r="S4" s="290"/>
+      <c r="T4" s="290"/>
     </row>
     <row r="5" spans="2:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="230"/>
+      <c r="C5" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="240" t="s">
+      <c r="E5" s="242" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="256" t="s">
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="269" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="256"/>
-      <c r="M5" s="240" t="s">
+      <c r="L5" s="269"/>
+      <c r="M5" s="242" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="241"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="241"/>
-      <c r="Q5" s="241"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="256" t="s">
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="269" t="s">
         <v>178</v>
       </c>
-      <c r="T5" s="256"/>
+      <c r="T5" s="269"/>
     </row>
     <row r="6" spans="2:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="228"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="293"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="295"/>
       <c r="E6" s="31" t="s">
         <v>118</v>
       </c>
@@ -18858,19 +18939,19 @@
       <c r="L1" s="50"/>
     </row>
     <row r="2" spans="2:12" s="43" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
     </row>
     <row r="3" spans="2:12" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50"/>
@@ -18886,70 +18967,70 @@
       <c r="L3" s="50"/>
     </row>
     <row r="4" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="234" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="234"/>
+      <c r="L4" s="236"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="294" t="s">
+      <c r="D5" s="296" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="234" t="s">
+      <c r="E5" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
     </row>
     <row r="6" spans="2:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="295"/>
-      <c r="E6" s="234" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="240" t="s">
+      <c r="F6" s="236"/>
+      <c r="G6" s="242" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="215" t="s">
+      <c r="H6" s="243"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="215" t="s">
+      <c r="K6" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="215" t="s">
+      <c r="L6" s="217" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="296"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="298"/>
       <c r="E7" s="21" t="s">
         <v>118</v>
       </c>
@@ -18965,9 +19046,9 @@
       <c r="I7" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
+      <c r="L7" s="219"/>
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
@@ -19566,7 +19647,7 @@
   </sheetPr>
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -19595,16 +19676,16 @@
       <c r="I1" s="50"/>
     </row>
     <row r="2" spans="2:9" s="43" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
     </row>
     <row r="3" spans="2:9" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="84"/>
@@ -19617,29 +19698,29 @@
       <c r="I3" s="84"/>
     </row>
     <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="297" t="s">
+      <c r="D4" s="299" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="215" t="s">
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="217" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="297"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="299"/>
       <c r="E5" s="38" t="s">
         <v>83</v>
       </c>
@@ -19652,7 +19733,7 @@
       <c r="H5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="217"/>
+      <c r="I5" s="219"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="106" t="s">
@@ -20160,75 +20241,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="4" spans="2:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="197" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="197" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="199"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="201"/>
     </row>
     <row r="5" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="195"/>
-      <c r="C5" s="200" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="200" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="202" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="H5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="203"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="200" t="s">
+      <c r="I5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="202" t="s">
+      <c r="L5" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="2:15" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196"/>
-      <c r="C6" s="201"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="203"/>
       <c r="D6" s="20" t="s">
         <v>144</v>
       </c>
@@ -20238,7 +20319,7 @@
       <c r="F6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="201"/>
+      <c r="G6" s="203"/>
       <c r="H6" s="20" t="s">
         <v>137</v>
       </c>
@@ -20248,7 +20329,7 @@
       <c r="J6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="201"/>
+      <c r="K6" s="203"/>
       <c r="L6" s="20" t="s">
         <v>144</v>
       </c>
@@ -21056,13 +21137,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -21467,13 +21548,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F3" s="8"/>
@@ -21887,20 +21968,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -22695,20 +22776,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L3" s="8"/>
@@ -23525,101 +23606,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="205" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="200" t="s">
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="212" t="s">
+      <c r="V4" s="214" t="s">
         <v>36</v>
       </c>
       <c r="Y4" s="35"/>
     </row>
     <row r="5" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="216"/>
-      <c r="C5" s="200" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="213"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="215"/>
       <c r="Y5" s="35"/>
     </row>
     <row r="6" spans="2:27" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="217"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="214"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="104" t="s">
         <v>103</v>
       </c>
@@ -23668,8 +23749,8 @@
       <c r="T6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="201"/>
-      <c r="V6" s="214"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="216"/>
       <c r="Y6" s="35"/>
     </row>
     <row r="7" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -25065,103 +25146,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.2">
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="205" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="200" t="s">
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="212" t="s">
+      <c r="V4" s="214" t="s">
         <v>36</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
     </row>
     <row r="5" spans="2:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="219"/>
-      <c r="C5" s="221" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="222" t="s">
+      <c r="D5" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="213"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="213"/>
+      <c r="V5" s="215"/>
       <c r="X5"/>
       <c r="Y5"/>
     </row>
     <row r="6" spans="2:26" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="220"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="222"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="224"/>
       <c r="E6" s="104" t="s">
         <v>103</v>
       </c>
@@ -25210,8 +25291,8 @@
       <c r="T6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="201"/>
-      <c r="V6" s="214"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="216"/>
       <c r="X6"/>
       <c r="Y6"/>
     </row>
